--- a/Data/D2. CS/2016, 2017, 2018 & 2019 - D2.4.SVY.HOUS - REV.xlsx
+++ b/Data/D2. CS/2016, 2017, 2018 & 2019 - D2.4.SVY.HOUS - REV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Aiesh\SPI 2019\SPI final files Dimensions 2 &amp; 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb469649\Documents\Github\SPI_v0\Data\D2. CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2CF35D-28C7-4864-B97D-997E341DCB4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDF157-394C-4430-8F03-03720E9BF94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B1D4A2B0-B996-4285-8899-E61063B05042}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B1D4A2B0-B996-4285-8899-E61063B05042}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 DCS" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23454,19 +23456,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="55" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" style="2" customWidth="1"/>
     <col min="4" max="17" width="7" style="2" customWidth="1"/>
     <col min="18" max="26" width="7" style="50" customWidth="1"/>
-    <col min="27" max="27" width="7.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="7.109375" style="50" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="2"/>
+    <col min="27" max="27" width="7.08984375" style="50" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7.08984375" style="50" customWidth="1"/>
+    <col min="30" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89" t="s">
@@ -23546,7 +23548,7 @@
       </c>
       <c r="AB1" s="89"/>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="89" t="s">
         <v>20</v>
       </c>
@@ -23582,7 +23584,7 @@
       <c r="AA2" s="89"/>
       <c r="AB2" s="89"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
         <v>23</v>
       </c>
@@ -23667,7 +23669,7 @@
       <c r="AB3" s="91"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="89" t="s">
         <v>24</v>
       </c>
@@ -23757,7 +23759,7 @@
       <c r="AG4" s="50"/>
       <c r="AH4" s="50"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="89" t="s">
         <v>25</v>
       </c>
@@ -23842,7 +23844,7 @@
       <c r="AB5" s="91"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="89" t="s">
         <v>26</v>
       </c>
@@ -23927,7 +23929,7 @@
       <c r="AB6" s="91"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
         <v>27</v>
       </c>
@@ -24012,7 +24014,7 @@
       <c r="AB7" s="91"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
         <v>28</v>
       </c>
@@ -24097,7 +24099,7 @@
       <c r="AB8" s="91"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
         <v>29</v>
       </c>
@@ -24182,7 +24184,7 @@
       <c r="AB9" s="91"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="89" t="s">
         <v>30</v>
       </c>
@@ -24267,7 +24269,7 @@
       <c r="AB10" s="91"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="89" t="s">
         <v>31</v>
       </c>
@@ -24352,7 +24354,7 @@
       <c r="AB11" s="91"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
         <v>32</v>
       </c>
@@ -24437,7 +24439,7 @@
       <c r="AB12" s="91"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="89" t="s">
         <v>33</v>
       </c>
@@ -24522,7 +24524,7 @@
       <c r="AB13" s="91"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>34</v>
       </c>
@@ -24607,7 +24609,7 @@
       <c r="AB14" s="91"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="89" t="s">
         <v>35</v>
       </c>
@@ -24692,7 +24694,7 @@
       <c r="AB15" s="91"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="89" t="s">
         <v>36</v>
       </c>
@@ -24777,7 +24779,7 @@
       <c r="AB16" s="91"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="89" t="s">
         <v>37</v>
       </c>
@@ -24862,7 +24864,7 @@
       <c r="AB17" s="91"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="89" t="s">
         <v>38</v>
       </c>
@@ -24947,7 +24949,7 @@
       <c r="AB18" s="91"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="89" t="s">
         <v>39</v>
       </c>
@@ -25032,7 +25034,7 @@
       <c r="AB19" s="91"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="89" t="s">
         <v>40</v>
       </c>
@@ -25117,7 +25119,7 @@
       <c r="AB20" s="91"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="89" t="s">
         <v>41</v>
       </c>
@@ -25202,7 +25204,7 @@
       <c r="AB21" s="91"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="89" t="s">
         <v>42</v>
       </c>
@@ -25287,7 +25289,7 @@
       <c r="AB22" s="91"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="89" t="s">
         <v>43</v>
       </c>
@@ -25372,7 +25374,7 @@
       <c r="AB23" s="91"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="89" t="s">
         <v>44</v>
       </c>
@@ -25457,7 +25459,7 @@
       <c r="AB24" s="91"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="89" t="s">
         <v>45</v>
       </c>
@@ -25542,7 +25544,7 @@
       <c r="AB25" s="91"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="89" t="s">
         <v>46</v>
       </c>
@@ -25627,7 +25629,7 @@
       <c r="AB26" s="91"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="89" t="s">
         <v>47</v>
       </c>
@@ -25712,7 +25714,7 @@
       <c r="AB27" s="91"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="89" t="s">
         <v>48</v>
       </c>
@@ -25797,7 +25799,7 @@
       <c r="AB28" s="91"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="89" t="s">
         <v>49</v>
       </c>
@@ -25882,7 +25884,7 @@
       <c r="AB29" s="91"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="89" t="s">
         <v>50</v>
       </c>
@@ -25967,7 +25969,7 @@
       <c r="AB30" s="91"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="89" t="s">
         <v>51</v>
       </c>
@@ -26052,7 +26054,7 @@
       <c r="AB31" s="91"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="89" t="s">
         <v>52</v>
       </c>
@@ -26137,7 +26139,7 @@
       <c r="AB32" s="91"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="89" t="s">
         <v>53</v>
       </c>
@@ -26222,7 +26224,7 @@
       <c r="AB33" s="91"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="89" t="s">
         <v>54</v>
       </c>
@@ -26307,7 +26309,7 @@
       <c r="AB34" s="91"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="89" t="s">
         <v>55</v>
       </c>
@@ -26392,7 +26394,7 @@
       <c r="AB35" s="91"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="89" t="s">
         <v>56</v>
       </c>
@@ -26477,7 +26479,7 @@
       <c r="AB36" s="91"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="89" t="s">
         <v>57</v>
       </c>
@@ -26562,7 +26564,7 @@
       <c r="AB37" s="91"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="89" t="s">
         <v>58</v>
       </c>
@@ -26647,7 +26649,7 @@
       <c r="AB38" s="91"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="89" t="s">
         <v>59</v>
       </c>
@@ -26732,7 +26734,7 @@
       <c r="AB39" s="91"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="89" t="s">
         <v>60</v>
       </c>
@@ -26817,7 +26819,7 @@
       <c r="AB40" s="91"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="89" t="s">
         <v>61</v>
       </c>
@@ -26902,7 +26904,7 @@
       <c r="AB41" s="91"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="89" t="s">
         <v>62</v>
       </c>
@@ -26987,7 +26989,7 @@
       <c r="AB42" s="91"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="89" t="s">
         <v>63</v>
       </c>
@@ -27072,7 +27074,7 @@
       <c r="AB43" s="91"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="89" t="s">
         <v>64</v>
       </c>
@@ -27157,7 +27159,7 @@
       <c r="AB44" s="91"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" s="89" t="s">
         <v>65</v>
       </c>
@@ -27242,7 +27244,7 @@
       <c r="AB45" s="91"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="89" t="s">
         <v>66</v>
       </c>
@@ -27327,7 +27329,7 @@
       <c r="AB46" s="91"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="89" t="s">
         <v>67</v>
       </c>
@@ -27412,7 +27414,7 @@
       <c r="AB47" s="91"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="89" t="s">
         <v>68</v>
       </c>
@@ -27497,7 +27499,7 @@
       <c r="AB48" s="91"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" s="89" t="s">
         <v>69</v>
       </c>
@@ -27582,7 +27584,7 @@
       <c r="AB49" s="91"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" s="89" t="s">
         <v>70</v>
       </c>
@@ -27667,7 +27669,7 @@
       <c r="AB50" s="91"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" s="89" t="s">
         <v>71</v>
       </c>
@@ -27752,7 +27754,7 @@
       <c r="AB51" s="91"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" s="89" t="s">
         <v>72</v>
       </c>
@@ -27837,7 +27839,7 @@
       <c r="AB52" s="91"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" s="89" t="s">
         <v>73</v>
       </c>
@@ -27922,7 +27924,7 @@
       <c r="AB53" s="91"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="89" t="s">
         <v>74</v>
       </c>
@@ -28007,7 +28009,7 @@
       <c r="AB54" s="91"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" s="89" t="s">
         <v>75</v>
       </c>
@@ -28092,7 +28094,7 @@
       <c r="AB55" s="91"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="89" t="s">
         <v>76</v>
       </c>
@@ -28177,7 +28179,7 @@
       <c r="AB56" s="91"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A57" s="89" t="s">
         <v>77</v>
       </c>
@@ -28262,7 +28264,7 @@
       <c r="AB57" s="91"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" s="89" t="s">
         <v>78</v>
       </c>
@@ -28347,7 +28349,7 @@
       <c r="AB58" s="91"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" s="89" t="s">
         <v>79</v>
       </c>
@@ -28432,7 +28434,7 @@
       <c r="AB59" s="91"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A60" s="89" t="s">
         <v>80</v>
       </c>
@@ -28517,7 +28519,7 @@
       <c r="AB60" s="91"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A61" s="89" t="s">
         <v>81</v>
       </c>
@@ -28602,7 +28604,7 @@
       <c r="AB61" s="91"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A62" s="89" t="s">
         <v>82</v>
       </c>
@@ -28687,7 +28689,7 @@
       <c r="AB62" s="91"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A63" s="89" t="s">
         <v>83</v>
       </c>
@@ -28772,7 +28774,7 @@
       <c r="AB63" s="91"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A64" s="89" t="s">
         <v>84</v>
       </c>
@@ -28857,7 +28859,7 @@
       <c r="AB64" s="91"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" s="89" t="s">
         <v>85</v>
       </c>
@@ -28942,7 +28944,7 @@
       <c r="AB65" s="91"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A66" s="89" t="s">
         <v>86</v>
       </c>
@@ -29027,7 +29029,7 @@
       <c r="AB66" s="91"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A67" s="89" t="s">
         <v>87</v>
       </c>
@@ -29112,7 +29114,7 @@
       <c r="AB67" s="91"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A68" s="89" t="s">
         <v>88</v>
       </c>
@@ -29197,7 +29199,7 @@
       <c r="AB68" s="91"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A69" s="89" t="s">
         <v>89</v>
       </c>
@@ -29282,7 +29284,7 @@
       <c r="AB69" s="91"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A70" s="89" t="s">
         <v>90</v>
       </c>
@@ -29367,7 +29369,7 @@
       <c r="AB70" s="91"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A71" s="89" t="s">
         <v>91</v>
       </c>
@@ -29452,7 +29454,7 @@
       <c r="AB71" s="91"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A72" s="89" t="s">
         <v>92</v>
       </c>
@@ -29537,7 +29539,7 @@
       <c r="AB72" s="91"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A73" s="89" t="s">
         <v>93</v>
       </c>
@@ -29622,7 +29624,7 @@
       <c r="AB73" s="91"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A74" s="89" t="s">
         <v>94</v>
       </c>
@@ -29707,7 +29709,7 @@
       <c r="AB74" s="91"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A75" s="89" t="s">
         <v>117</v>
       </c>
@@ -29792,7 +29794,7 @@
       <c r="AB75" s="91"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="89" t="s">
         <v>95</v>
       </c>
@@ -29876,7 +29878,7 @@
       </c>
       <c r="AB76" s="91"/>
     </row>
-    <row r="77" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="89" t="s">
         <v>96</v>
       </c>
@@ -29958,7 +29960,7 @@
       </c>
       <c r="AB77" s="91"/>
     </row>
-    <row r="78" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="89" t="s">
         <v>97</v>
       </c>
@@ -30042,7 +30044,7 @@
       </c>
       <c r="AB78" s="91"/>
     </row>
-    <row r="79" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="89" t="s">
         <v>98</v>
       </c>
@@ -30126,7 +30128,7 @@
       </c>
       <c r="AB79" s="91"/>
     </row>
-    <row r="80" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="89" t="s">
         <v>99</v>
       </c>
@@ -30210,7 +30212,7 @@
       </c>
       <c r="AB80" s="91"/>
     </row>
-    <row r="81" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="89" t="s">
         <v>100</v>
       </c>
@@ -30294,7 +30296,7 @@
       </c>
       <c r="AB81" s="91"/>
     </row>
-    <row r="82" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="89" t="s">
         <v>101</v>
       </c>
@@ -30378,7 +30380,7 @@
       </c>
       <c r="AB82" s="91"/>
     </row>
-    <row r="83" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="89" t="s">
         <v>102</v>
       </c>
@@ -30462,7 +30464,7 @@
       </c>
       <c r="AB83" s="91"/>
     </row>
-    <row r="84" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="89" t="s">
         <v>103</v>
       </c>
@@ -30546,7 +30548,7 @@
       </c>
       <c r="AB84" s="91"/>
     </row>
-    <row r="85" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="89" t="s">
         <v>104</v>
       </c>
@@ -30630,7 +30632,7 @@
       </c>
       <c r="AB85" s="91"/>
     </row>
-    <row r="86" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="89" t="s">
         <v>105</v>
       </c>
@@ -30714,7 +30716,7 @@
       </c>
       <c r="AB86" s="91"/>
     </row>
-    <row r="87" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="89" t="s">
         <v>106</v>
       </c>
@@ -30798,7 +30800,7 @@
       </c>
       <c r="AB87" s="91"/>
     </row>
-    <row r="88" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="89" t="s">
         <v>107</v>
       </c>
@@ -30882,7 +30884,7 @@
       </c>
       <c r="AB88" s="91"/>
     </row>
-    <row r="89" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="89" t="s">
         <v>108</v>
       </c>
@@ -30966,7 +30968,7 @@
       </c>
       <c r="AB89" s="91"/>
     </row>
-    <row r="90" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="89" t="s">
         <v>109</v>
       </c>
@@ -31050,7 +31052,7 @@
       </c>
       <c r="AB90" s="91"/>
     </row>
-    <row r="91" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="89" t="s">
         <v>110</v>
       </c>
@@ -31134,7 +31136,7 @@
       </c>
       <c r="AB91" s="91"/>
     </row>
-    <row r="92" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="89" t="s">
         <v>111</v>
       </c>
@@ -31216,7 +31218,7 @@
       </c>
       <c r="AB92" s="91"/>
     </row>
-    <row r="93" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="89" t="s">
         <v>112</v>
       </c>
@@ -31300,7 +31302,7 @@
       </c>
       <c r="AB93" s="91"/>
     </row>
-    <row r="94" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="89" t="s">
         <v>113</v>
       </c>
@@ -31384,7 +31386,7 @@
       </c>
       <c r="AB94" s="91"/>
     </row>
-    <row r="95" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="89" t="s">
         <v>114</v>
       </c>
@@ -31468,7 +31470,7 @@
       </c>
       <c r="AB95" s="91"/>
     </row>
-    <row r="96" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="89" t="s">
         <v>115</v>
       </c>
@@ -31552,7 +31554,7 @@
       </c>
       <c r="AB96" s="91"/>
     </row>
-    <row r="97" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="89" t="s">
         <v>116</v>
       </c>
@@ -31636,7 +31638,7 @@
       </c>
       <c r="AB97" s="91"/>
     </row>
-    <row r="98" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="89" t="s">
         <v>118</v>
       </c>
@@ -31720,7 +31722,7 @@
       </c>
       <c r="AB98" s="91"/>
     </row>
-    <row r="99" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="89" t="s">
         <v>119</v>
       </c>
@@ -31804,7 +31806,7 @@
       </c>
       <c r="AB99" s="91"/>
     </row>
-    <row r="100" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="89" t="s">
         <v>120</v>
       </c>
@@ -31888,7 +31890,7 @@
       </c>
       <c r="AB100" s="91"/>
     </row>
-    <row r="101" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="89" t="s">
         <v>121</v>
       </c>
@@ -31972,7 +31974,7 @@
       </c>
       <c r="AB101" s="91"/>
     </row>
-    <row r="102" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="89" t="s">
         <v>122</v>
       </c>
@@ -32056,7 +32058,7 @@
       </c>
       <c r="AB102" s="91"/>
     </row>
-    <row r="103" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="89" t="s">
         <v>123</v>
       </c>
@@ -32140,7 +32142,7 @@
       </c>
       <c r="AB103" s="91"/>
     </row>
-    <row r="104" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="89" t="s">
         <v>124</v>
       </c>
@@ -32224,7 +32226,7 @@
       </c>
       <c r="AB104" s="91"/>
     </row>
-    <row r="105" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="89" t="s">
         <v>125</v>
       </c>
@@ -32308,7 +32310,7 @@
       </c>
       <c r="AB105" s="91"/>
     </row>
-    <row r="106" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="89" t="s">
         <v>126</v>
       </c>
@@ -32392,7 +32394,7 @@
       </c>
       <c r="AB106" s="91"/>
     </row>
-    <row r="107" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="89" t="s">
         <v>127</v>
       </c>
@@ -32476,7 +32478,7 @@
       </c>
       <c r="AB107" s="91"/>
     </row>
-    <row r="108" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="89" t="s">
         <v>128</v>
       </c>
@@ -32560,7 +32562,7 @@
       </c>
       <c r="AB108" s="91"/>
     </row>
-    <row r="109" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="89" t="s">
         <v>129</v>
       </c>
@@ -32644,7 +32646,7 @@
       </c>
       <c r="AB109" s="91"/>
     </row>
-    <row r="110" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="89" t="s">
         <v>130</v>
       </c>
@@ -32728,7 +32730,7 @@
       </c>
       <c r="AB110" s="91"/>
     </row>
-    <row r="111" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="89" t="s">
         <v>131</v>
       </c>
@@ -32812,7 +32814,7 @@
       </c>
       <c r="AB111" s="91"/>
     </row>
-    <row r="112" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="89" t="s">
         <v>132</v>
       </c>
@@ -32896,7 +32898,7 @@
       </c>
       <c r="AB112" s="91"/>
     </row>
-    <row r="113" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="89" t="s">
         <v>133</v>
       </c>
@@ -32980,7 +32982,7 @@
       </c>
       <c r="AB113" s="91"/>
     </row>
-    <row r="114" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="89" t="s">
         <v>134</v>
       </c>
@@ -33064,7 +33066,7 @@
       </c>
       <c r="AB114" s="91"/>
     </row>
-    <row r="115" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="89" t="s">
         <v>135</v>
       </c>
@@ -33148,7 +33150,7 @@
       </c>
       <c r="AB115" s="91"/>
     </row>
-    <row r="116" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="89" t="s">
         <v>136</v>
       </c>
@@ -33232,7 +33234,7 @@
       </c>
       <c r="AB116" s="91"/>
     </row>
-    <row r="117" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="89" t="s">
         <v>137</v>
       </c>
@@ -33316,7 +33318,7 @@
       </c>
       <c r="AB117" s="91"/>
     </row>
-    <row r="118" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="89" t="s">
         <v>138</v>
       </c>
@@ -33400,7 +33402,7 @@
       </c>
       <c r="AB118" s="91"/>
     </row>
-    <row r="119" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="89" t="s">
         <v>139</v>
       </c>
@@ -33484,7 +33486,7 @@
       </c>
       <c r="AB119" s="91"/>
     </row>
-    <row r="120" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="89" t="s">
         <v>140</v>
       </c>
@@ -33568,7 +33570,7 @@
       </c>
       <c r="AB120" s="91"/>
     </row>
-    <row r="121" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="89" t="s">
         <v>141</v>
       </c>
@@ -33652,7 +33654,7 @@
       </c>
       <c r="AB121" s="91"/>
     </row>
-    <row r="122" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="89" t="s">
         <v>142</v>
       </c>
@@ -33736,7 +33738,7 @@
       </c>
       <c r="AB122" s="91"/>
     </row>
-    <row r="123" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="89" t="s">
         <v>143</v>
       </c>
@@ -33818,7 +33820,7 @@
       </c>
       <c r="AB123" s="91"/>
     </row>
-    <row r="124" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="89" t="s">
         <v>144</v>
       </c>
@@ -33902,7 +33904,7 @@
       </c>
       <c r="AB124" s="91"/>
     </row>
-    <row r="125" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="89" t="s">
         <v>145</v>
       </c>
@@ -33986,7 +33988,7 @@
       </c>
       <c r="AB125" s="91"/>
     </row>
-    <row r="126" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="89" t="s">
         <v>146</v>
       </c>
@@ -34070,7 +34072,7 @@
       </c>
       <c r="AB126" s="91"/>
     </row>
-    <row r="127" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="89" t="s">
         <v>147</v>
       </c>
@@ -34154,7 +34156,7 @@
       </c>
       <c r="AB127" s="91"/>
     </row>
-    <row r="128" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="89" t="s">
         <v>148</v>
       </c>
@@ -34238,7 +34240,7 @@
       </c>
       <c r="AB128" s="91"/>
     </row>
-    <row r="129" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="89" t="s">
         <v>149</v>
       </c>
@@ -34322,7 +34324,7 @@
       </c>
       <c r="AB129" s="91"/>
     </row>
-    <row r="130" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="89" t="s">
         <v>150</v>
       </c>
@@ -34406,7 +34408,7 @@
       </c>
       <c r="AB130" s="91"/>
     </row>
-    <row r="131" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="89" t="s">
         <v>151</v>
       </c>
@@ -34490,7 +34492,7 @@
       </c>
       <c r="AB131" s="91"/>
     </row>
-    <row r="132" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="89" t="s">
         <v>152</v>
       </c>
@@ -34574,7 +34576,7 @@
       </c>
       <c r="AB132" s="91"/>
     </row>
-    <row r="133" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="89" t="s">
         <v>153</v>
       </c>
@@ -34658,7 +34660,7 @@
       </c>
       <c r="AB133" s="91"/>
     </row>
-    <row r="134" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="89" t="s">
         <v>154</v>
       </c>
@@ -34742,7 +34744,7 @@
       </c>
       <c r="AB134" s="91"/>
     </row>
-    <row r="135" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="89" t="s">
         <v>155</v>
       </c>
@@ -34826,7 +34828,7 @@
       </c>
       <c r="AB135" s="91"/>
     </row>
-    <row r="136" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="89" t="s">
         <v>156</v>
       </c>
@@ -34910,7 +34912,7 @@
       </c>
       <c r="AB136" s="91"/>
     </row>
-    <row r="137" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="89" t="s">
         <v>157</v>
       </c>
@@ -34994,7 +34996,7 @@
       </c>
       <c r="AB137" s="91"/>
     </row>
-    <row r="138" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="89" t="s">
         <v>158</v>
       </c>
@@ -35078,7 +35080,7 @@
       </c>
       <c r="AB138" s="91"/>
     </row>
-    <row r="139" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="89" t="s">
         <v>159</v>
       </c>
@@ -35162,7 +35164,7 @@
       </c>
       <c r="AB139" s="91"/>
     </row>
-    <row r="140" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="89" t="s">
         <v>160</v>
       </c>
@@ -35246,7 +35248,7 @@
       </c>
       <c r="AB140" s="91"/>
     </row>
-    <row r="141" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="89" t="s">
         <v>161</v>
       </c>
@@ -35330,7 +35332,7 @@
       </c>
       <c r="AB141" s="91"/>
     </row>
-    <row r="142" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="89" t="s">
         <v>162</v>
       </c>
@@ -35414,7 +35416,7 @@
       </c>
       <c r="AB142" s="91"/>
     </row>
-    <row r="143" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="89" t="s">
         <v>163</v>
       </c>
@@ -35498,7 +35500,7 @@
       </c>
       <c r="AB143" s="91"/>
     </row>
-    <row r="144" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="89" t="s">
         <v>313</v>
       </c>
@@ -35582,7 +35584,7 @@
       </c>
       <c r="AB144" s="91"/>
     </row>
-    <row r="145" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="89" t="s">
         <v>164</v>
       </c>
@@ -35666,7 +35668,7 @@
       </c>
       <c r="AB145" s="91"/>
     </row>
-    <row r="146" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="89" t="s">
         <v>165</v>
       </c>
@@ -35750,7 +35752,7 @@
       </c>
       <c r="AB146" s="91"/>
     </row>
-    <row r="147" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="89" t="s">
         <v>166</v>
       </c>
@@ -35845,32 +35847,32 @@
   <dimension ref="A1:BA148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="S43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG72" sqref="AG72"/>
+      <selection pane="bottomRight" activeCell="AQ47" sqref="AQ47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" style="2" customWidth="1"/>
     <col min="6" max="28" width="7" style="2" customWidth="1"/>
     <col min="29" max="37" width="7" style="50" customWidth="1"/>
-    <col min="38" max="38" width="7.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.109375" style="50" customWidth="1"/>
-    <col min="41" max="41" width="9.6640625" style="50" customWidth="1"/>
+    <col min="38" max="38" width="7.08984375" style="50" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.08984375" style="50" customWidth="1"/>
+    <col min="41" max="41" width="9.6328125" style="50" customWidth="1"/>
     <col min="42" max="42" width="10" style="50" customWidth="1"/>
-    <col min="43" max="43" width="39.33203125" style="56" customWidth="1"/>
-    <col min="44" max="44" width="11.5546875" style="2" customWidth="1"/>
-    <col min="45" max="45" width="11.5546875" style="55" customWidth="1"/>
-    <col min="46" max="16384" width="9.109375" style="2"/>
+    <col min="43" max="43" width="57.54296875" style="56" customWidth="1"/>
+    <col min="44" max="44" width="11.54296875" style="2" customWidth="1"/>
+    <col min="45" max="45" width="11.54296875" style="55" customWidth="1"/>
+    <col min="46" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>1</v>
       </c>
@@ -36046,7 +36048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="AC2" s="10"/>
@@ -36077,7 +36079,7 @@
       </c>
       <c r="AS2" s="15"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>167</v>
       </c>
@@ -36214,7 +36216,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="32">
         <v>1</v>
       </c>
@@ -36357,7 +36359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <f t="shared" ref="A5:A36" si="6">1+A4</f>
         <v>2</v>
@@ -36502,7 +36504,7 @@
       <c r="AZ5" s="50"/>
       <c r="BA5" s="50"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="32">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -36642,7 +36644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -36784,7 +36786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -36924,7 +36926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="32">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -37066,7 +37068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -37210,7 +37212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="32">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -37352,7 +37354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="32">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -37492,7 +37494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="32">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -37632,7 +37634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="32">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -37772,7 +37774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="32">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -37914,7 +37916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -38054,7 +38056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="32">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -38196,7 +38198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" s="32">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -38336,7 +38338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -38476,7 +38478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20" s="32">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -38616,7 +38618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="32">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -38756,7 +38758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" s="32">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -38898,7 +38900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23" s="32">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -39038,7 +39040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24" s="32">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -39178,7 +39180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" s="32">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -39320,7 +39322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26" s="32">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -39460,7 +39462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27" s="32">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -39600,7 +39602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28" s="32">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -39742,7 +39744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29" s="32">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -39882,7 +39884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30" s="32">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -40022,7 +40024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31" s="32">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -40162,7 +40164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32" s="32">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -40304,7 +40306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A33" s="32">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -40444,7 +40446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A34" s="32">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -40584,7 +40586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A35" s="32">
         <f t="shared" si="6"/>
         <v>32</v>
@@ -40724,7 +40726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A36" s="32">
         <f t="shared" si="6"/>
         <v>33</v>
@@ -40866,7 +40868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A37" s="32">
         <f t="shared" ref="A37:A68" si="12">1+A36</f>
         <v>34</v>
@@ -41006,7 +41008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A38" s="32">
         <f t="shared" si="12"/>
         <v>35</v>
@@ -41146,7 +41148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A39" s="32">
         <f t="shared" si="12"/>
         <v>36</v>
@@ -41286,7 +41288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A40" s="32">
         <f t="shared" si="12"/>
         <v>37</v>
@@ -41426,7 +41428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A41" s="32">
         <f t="shared" si="12"/>
         <v>38</v>
@@ -41566,7 +41568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A42" s="32">
         <f t="shared" si="12"/>
         <v>39</v>
@@ -41708,7 +41710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A43" s="32">
         <f t="shared" si="12"/>
         <v>40</v>
@@ -41848,7 +41850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A44" s="32">
         <f t="shared" si="12"/>
         <v>41</v>
@@ -41990,7 +41992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A45" s="32">
         <f t="shared" si="12"/>
         <v>42</v>
@@ -42130,7 +42132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A46" s="32">
         <f t="shared" si="12"/>
         <v>43</v>
@@ -42270,7 +42272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A47" s="32">
         <f t="shared" si="12"/>
         <v>44</v>
@@ -42393,24 +42395,24 @@
         <v>1</v>
       </c>
       <c r="AP47" s="39"/>
-      <c r="AQ47" s="44" t="e">
-        <f>+IF($F47=1,RIGHT(F$3,4)&amp;", ","")&amp;IF($G47=1,RIGHT(G$3,4)&amp;", ","")&amp;IF($H47=1,RIGHT(H$3,4)&amp;", ","")&amp;IF($I47=1,RIGHT(I$3,4)&amp;", ","")&amp;IF($J47=1,RIGHT(J$3,4)&amp;", ","")&amp;IF($K47=1,RIGHT(K$3,4)&amp;", ","")&amp;IF($L47=1,RIGHT(L$3,4)&amp;", ","")&amp;IF($M47=1,RIGHT(M$3,4)&amp;", ","")&amp;IF($N47=1,RIGHT(N$3,4)&amp;", ","")&amp;IF($O47=1,RIGHT(O$3,4)&amp;", ","")&amp;IF($P47=1,RIGHT(P$3,4)&amp;", ","")&amp;IF($Q47=1,RIGHT(Q$3,4)&amp;", ","")&amp;IF($R47=1,RIGHT(R$3,4)&amp;", ","")&amp;IF($S47=1,RIGHT(S$3,4)&amp;", ","")&amp;IF($T47=1,RIGHT(T$3,4)&amp;", ","")&amp;IF($U47=1,RIGHT(U$3,4)&amp;", ","")&amp;IF($V47=1,RIGHT(V$3,4)&amp;", ","")&amp;IF($W47=1,RIGHT(W$3,4)&amp;", ","")&amp;IF($X47=1,RIGHT(X$3,4)&amp;", ","")&amp;IF($Y47=1,RIGHT(Y$3,4)&amp;", ","")&amp;IF($Z47=1,RIGHT(Z$3,4)&amp;", ","")&amp;IF($AA47=1,RIGHT(AA$3,4)&amp;", ","")&amp;IF($AB47=1,RIGHT(AB$3,4)&amp;", ","")&amp;IF($AC47=1,RIGHT(AC$3,4)&amp;", ","")&amp;IF($AD47=1,RIGHT(AD$3,4)&amp;", ","")&amp;IF($AE47=1,RIGHT(AE$3,4)&amp;", ","")&amp;IF($AF47=1,RIGHT(AF$3,4)&amp;", ","")&amp;IF($AG47=1,RIGHT(AG$3,4)&amp;", ","")&amp;IF(#REF!=1,RIGHT(AH$3,4)&amp;", ","")&amp;IF($AH47=1,RIGHT(AI$3,4)&amp;", ","")&amp;IF($AJ47=1,RIGHT(AJ$3,4)&amp;", ","")&amp;IF($AK47=1,RIGHT(AK$3,4)&amp;", ","")&amp;IF($AL47=1,RIGHT(AL$3,4)&amp;", ","")&amp;IF($AM47=1,RIGHT(AM$3,4)&amp;", ","")&amp;IF($AN47=1,RIGHT(AN$3,4)&amp;", ","")</f>
-        <v>#REF!</v>
+      <c r="AQ47" s="44" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">1992, 1999, 2002, 2004, 2008, 2010, 2011, 2013, 2015, </v>
       </c>
       <c r="AR47" s="45">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS47" s="46">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" s="2" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A48" s="32">
         <f t="shared" si="12"/>
         <v>45</v>
@@ -42552,7 +42554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A49" s="32">
         <f t="shared" si="12"/>
         <v>46</v>
@@ -42692,7 +42694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A50" s="32">
         <f t="shared" si="12"/>
         <v>47</v>
@@ -42834,7 +42836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A51" s="32">
         <f t="shared" si="12"/>
         <v>48</v>
@@ -42974,7 +42976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A52" s="32">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -43114,7 +43116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A53" s="32">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -43256,7 +43258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A54" s="32">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -43396,7 +43398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A55" s="32">
         <f t="shared" si="12"/>
         <v>52</v>
@@ -43536,7 +43538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A56" s="32">
         <f t="shared" si="12"/>
         <v>53</v>
@@ -43678,7 +43680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A57" s="32">
         <f t="shared" si="12"/>
         <v>54</v>
@@ -43820,7 +43822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58" s="32">
         <f t="shared" si="12"/>
         <v>55</v>
@@ -43960,7 +43962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59" s="32">
         <f t="shared" si="12"/>
         <v>56</v>
@@ -44102,7 +44104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60" s="32">
         <f t="shared" si="12"/>
         <v>57</v>
@@ -44242,7 +44244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61" s="32">
         <f t="shared" si="12"/>
         <v>58</v>
@@ -44384,7 +44386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62" s="32">
         <f t="shared" si="12"/>
         <v>59</v>
@@ -44524,7 +44526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63" s="32">
         <f t="shared" si="12"/>
         <v>60</v>
@@ -44666,7 +44668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A64" s="32">
         <f t="shared" si="12"/>
         <v>61</v>
@@ -44806,7 +44808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A65" s="32">
         <f t="shared" si="12"/>
         <v>62</v>
@@ -44946,7 +44948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A66" s="32">
         <f t="shared" si="12"/>
         <v>63</v>
@@ -45086,7 +45088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A67" s="32">
         <f t="shared" si="12"/>
         <v>64</v>
@@ -45228,7 +45230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A68" s="32">
         <f t="shared" si="12"/>
         <v>65</v>
@@ -45370,7 +45372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A69" s="32">
         <f t="shared" ref="A69:A132" si="18">1+A68</f>
         <v>66</v>
@@ -45512,7 +45514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A70" s="32">
         <f t="shared" si="18"/>
         <v>67</v>
@@ -45652,7 +45654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A71" s="32">
         <f t="shared" si="18"/>
         <v>68</v>
@@ -45792,7 +45794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A72" s="32">
         <f t="shared" si="18"/>
         <v>69</v>
@@ -45932,7 +45934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A73" s="32">
         <f t="shared" si="18"/>
         <v>70</v>
@@ -46072,7 +46074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A74" s="32">
         <f t="shared" si="18"/>
         <v>71</v>
@@ -46212,7 +46214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A75" s="32">
         <f t="shared" si="18"/>
         <v>72</v>
@@ -46352,7 +46354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A76" s="32">
         <f t="shared" si="18"/>
         <v>73</v>
@@ -46492,7 +46494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="64">
         <f t="shared" si="18"/>
         <v>74</v>
@@ -46632,7 +46634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="64">
         <f t="shared" si="18"/>
         <v>75</v>
@@ -46772,7 +46774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="64">
         <f t="shared" si="18"/>
         <v>76</v>
@@ -46914,7 +46916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="64">
         <f t="shared" si="18"/>
         <v>77</v>
@@ -47056,7 +47058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="64">
         <f t="shared" si="18"/>
         <v>78</v>
@@ -47198,7 +47200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="64">
         <f t="shared" si="18"/>
         <v>79</v>
@@ -47340,7 +47342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="64">
         <f t="shared" si="18"/>
         <v>80</v>
@@ -47482,7 +47484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="64">
         <f t="shared" si="18"/>
         <v>81</v>
@@ -47622,7 +47624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="64">
         <f t="shared" si="18"/>
         <v>82</v>
@@ -47764,7 +47766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="64">
         <f t="shared" si="18"/>
         <v>83</v>
@@ -47906,7 +47908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="64">
         <f t="shared" si="18"/>
         <v>84</v>
@@ -48046,7 +48048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="64">
         <f t="shared" si="18"/>
         <v>85</v>
@@ -48188,7 +48190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="64">
         <f t="shared" si="18"/>
         <v>86</v>
@@ -48330,7 +48332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="64">
         <f t="shared" si="18"/>
         <v>87</v>
@@ -48470,7 +48472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="64">
         <f t="shared" si="18"/>
         <v>88</v>
@@ -48612,7 +48614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="64">
         <f t="shared" si="18"/>
         <v>89</v>
@@ -48752,7 +48754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="64">
         <f t="shared" si="18"/>
         <v>90</v>
@@ -48890,7 +48892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="64">
         <f t="shared" si="18"/>
         <v>91</v>
@@ -49030,7 +49032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="64">
         <f t="shared" si="18"/>
         <v>92</v>
@@ -49172,7 +49174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="64">
         <f t="shared" si="18"/>
         <v>93</v>
@@ -49312,7 +49314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="64">
         <f t="shared" si="18"/>
         <v>94</v>
@@ -49454,7 +49456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="64">
         <f t="shared" si="18"/>
         <v>95</v>
@@ -49596,7 +49598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="64">
         <f t="shared" si="18"/>
         <v>96</v>
@@ -49736,7 +49738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="64">
         <f t="shared" si="18"/>
         <v>97</v>
@@ -49876,7 +49878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="64">
         <f t="shared" si="18"/>
         <v>98</v>
@@ -50018,7 +50020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="64">
         <f t="shared" si="18"/>
         <v>99</v>
@@ -50158,7 +50160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="64">
         <f t="shared" si="18"/>
         <v>100</v>
@@ -50302,7 +50304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="64">
         <f t="shared" si="18"/>
         <v>101</v>
@@ -50444,7 +50446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="64">
         <f t="shared" si="18"/>
         <v>102</v>
@@ -50586,7 +50588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="64">
         <f t="shared" si="18"/>
         <v>103</v>
@@ -50728,7 +50730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="64">
         <f t="shared" si="18"/>
         <v>104</v>
@@ -50868,7 +50870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="64">
         <f t="shared" si="18"/>
         <v>105</v>
@@ -51008,7 +51010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="64">
         <f t="shared" si="18"/>
         <v>106</v>
@@ -51148,7 +51150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="64">
         <f t="shared" si="18"/>
         <v>107</v>
@@ -51290,7 +51292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="64">
         <f t="shared" si="18"/>
         <v>108</v>
@@ -51430,7 +51432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="64">
         <f t="shared" si="18"/>
         <v>109</v>
@@ -51572,7 +51574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="64">
         <f t="shared" si="18"/>
         <v>110</v>
@@ -51714,7 +51716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="64">
         <f t="shared" si="18"/>
         <v>111</v>
@@ -51854,7 +51856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="64">
         <f t="shared" si="18"/>
         <v>112</v>
@@ -51996,7 +51998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="64">
         <f t="shared" si="18"/>
         <v>113</v>
@@ -52136,7 +52138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="64">
         <f t="shared" si="18"/>
         <v>114</v>
@@ -52276,7 +52278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="64">
         <f t="shared" si="18"/>
         <v>115</v>
@@ -52418,7 +52420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="64">
         <f t="shared" si="18"/>
         <v>116</v>
@@ -52558,7 +52560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="64">
         <f t="shared" si="18"/>
         <v>117</v>
@@ -52698,7 +52700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="64">
         <f t="shared" si="18"/>
         <v>118</v>
@@ -52838,7 +52840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="64">
         <f t="shared" si="18"/>
         <v>119</v>
@@ -52978,7 +52980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="64">
         <f t="shared" si="18"/>
         <v>120</v>
@@ -53120,7 +53122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="64">
         <f t="shared" si="18"/>
         <v>121</v>
@@ -53258,7 +53260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="64">
         <f t="shared" si="18"/>
         <v>122</v>
@@ -53398,7 +53400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="64">
         <f t="shared" si="18"/>
         <v>123</v>
@@ -53538,7 +53540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="64">
         <f t="shared" si="18"/>
         <v>124</v>
@@ -53678,7 +53680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="64">
         <f t="shared" si="18"/>
         <v>125</v>
@@ -53818,7 +53820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="64">
         <f t="shared" si="18"/>
         <v>126</v>
@@ -53962,7 +53964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="64">
         <f t="shared" si="18"/>
         <v>127</v>
@@ -54102,7 +54104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="64">
         <f t="shared" si="18"/>
         <v>128</v>
@@ -54244,7 +54246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="64">
         <f t="shared" si="18"/>
         <v>129</v>
@@ -54384,7 +54386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="64">
         <f t="shared" ref="A133:A148" si="27">1+A132</f>
         <v>130</v>
@@ -54526,7 +54528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="64">
         <f t="shared" si="27"/>
         <v>131</v>
@@ -54666,7 +54668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="64">
         <f t="shared" si="27"/>
         <v>132</v>
@@ -54806,7 +54808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="64">
         <f t="shared" si="27"/>
         <v>133</v>
@@ -54946,7 +54948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="64">
         <f t="shared" si="27"/>
         <v>134</v>
@@ -55086,7 +55088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="64">
         <f t="shared" si="27"/>
         <v>135</v>
@@ -55226,7 +55228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="64">
         <f t="shared" si="27"/>
         <v>136</v>
@@ -55366,7 +55368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="64">
         <f t="shared" si="27"/>
         <v>137</v>
@@ -55506,7 +55508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="64">
         <f t="shared" si="27"/>
         <v>138</v>
@@ -55646,7 +55648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="64">
         <f t="shared" si="27"/>
         <v>139</v>
@@ -55788,7 +55790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="64">
         <f t="shared" si="27"/>
         <v>140</v>
@@ -55928,7 +55930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="64">
         <f t="shared" si="27"/>
         <v>141</v>
@@ -56068,7 +56070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="64">
         <f t="shared" si="27"/>
         <v>142</v>
@@ -56208,7 +56210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="64">
         <f t="shared" si="27"/>
         <v>143</v>
@@ -56348,7 +56350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="64">
         <f t="shared" si="27"/>
         <v>144</v>
@@ -56488,7 +56490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="64">
         <f t="shared" si="27"/>
         <v>145</v>
@@ -56641,21 +56643,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E93F6603CF6DCF40AF6C2D7B5F40A87F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45fc29fb54955ec5b142d573f2dbd12d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66105097-ee36-46f0-bac2-3eec24bcac6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e52626f6f787f7824458d45f6c3fdd57" ns3:_="">
     <xsd:import namespace="66105097-ee36-46f0-bac2-3eec24bcac6a"/>
@@ -56827,10 +56814,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8001F0D6-2591-4A68-815D-C98503A36C32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E35D9F-FB61-4CF5-A4D6-88B0F3444DEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="66105097-ee36-46f0-bac2-3eec24bcac6a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -56852,19 +56864,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E35D9F-FB61-4CF5-A4D6-88B0F3444DEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8001F0D6-2591-4A68-815D-C98503A36C32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="66105097-ee36-46f0-bac2-3eec24bcac6a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>